--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -22,7 +19,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Expected Message</t>
+    <t>Message</t>
   </si>
   <si>
     <t>hihaha@abc.def</t>
@@ -119,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -129,12 +126,24 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -142,7 +151,10 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,10 +372,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.5"/>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="4" max="4" width="56.75"/>
+    <col customWidth="1" min="1" max="1" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="40.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -373,98 +384,65 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>123456.0</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="11">
+        <v>123456.0</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>123456.0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>123456.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
